--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,06</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; -2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; -2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; -2,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; -2,73</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,72%</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,0; -46,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,17; -40,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,0; -46,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,17; -40,82</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,36</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 1,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; -3,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 1,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 1,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; -3,12</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,67%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,33; 34,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,14; 32,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,53; -56,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,33; 34,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,14; 32,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,53; -56,67</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 9,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 0,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 0,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 9,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 0,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 0,76</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,26%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,01; 603,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,36; 68,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,81; 76,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,01; 603,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,36; 68,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,81; 76,02</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,18</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; -0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; -1,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 3,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; -0,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; -1,13</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,91%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,09; 60,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,58; -0,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,71; -12,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,09; 60,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,58; -0,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,71; -12,68</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,44</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 7,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 1,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,23; -4,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 7,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 1,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,23; -4,83</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,34%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,33; 130,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,8; 34,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,33; 130,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,8; 34,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,28</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,45</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 4,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; -3,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; -4,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 4,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; -3,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; -4,12</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,57%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,67; 58,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,99; -40,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,76; -57,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,67; 58,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,99; -40,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,76; -57,33</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 2,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 2,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 0,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 2,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 2,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 0,59</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,83%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,68; 55,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 68,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,2; 13,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,68; 55,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 68,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,2; 13,21</t>
         </is>
       </c>
     </row>
@@ -2159,32 +2159,32 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 2,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; -3,8</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 2,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; -3,8</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,25%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,25%</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,91; 51,39</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,15; 28,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,2; -71,04</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,91; 51,39</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,15; 28,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,2; -71,04</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2375,32 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
     </row>
@@ -2481,32 +2481,32 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -2,73</t>
+          <t>-10,37; -2,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 5,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -2,73</t>
+          <t>-10,37; -2,58</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-75,72%</t>
+          <t>-74,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-75,72%</t>
+          <t>-74,25%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,35; 93,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,17; -40,82</t>
+          <t>-92,96; -36,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,35; 93,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-93,17; -40,82</t>
+          <t>-92,96; -36,65</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,37</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -3,12</t>
+          <t>-7,85; -3,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -3,12</t>
+          <t>-7,85; -3,13</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-81,67%</t>
+          <t>-81,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-81,67%</t>
+          <t>-81,71%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,53; -56,67</t>
+          <t>-92,55; -57,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,53; -56,67</t>
+          <t>-92,55; -57,2</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,76</t>
+          <t>-3,62; 0,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,76</t>
+          <t>-3,62; 0,77</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,26%</t>
+          <t>-45,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-45,26%</t>
+          <t>-45,33%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,81; 76,02</t>
+          <t>-84,97; 75,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,81; 76,02</t>
+          <t>-84,97; 75,18</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-4,73</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,12</t>
+          <t>-5,16; 2,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -1,13</t>
+          <t>-7,85; -1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,12</t>
+          <t>-5,16; 2,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -1,13</t>
+          <t>-7,85; -1,68</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,91%</t>
+          <t>-63,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-55,91%</t>
+          <t>-63,22%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 60,31</t>
+          <t>-54,41; 40,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,71; -12,68</t>
+          <t>-84,49; -27,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 60,31</t>
+          <t>-54,41; 40,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,71; -12,68</t>
+          <t>-84,49; -27,64</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-8,43</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -4,83</t>
+          <t>-13,22; -4,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -4,83</t>
+          <t>-13,22; -4,82</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-95,34%</t>
+          <t>-95,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-95,34%</t>
+          <t>-95,23%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,28</t>
+          <t>-100,0; -82,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,28</t>
+          <t>-100,0; -82,0</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -4,12</t>
+          <t>-11,36; -4,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -4,12</t>
+          <t>-11,36; -4,11</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-83,57%</t>
+          <t>-83,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-83,57%</t>
+          <t>-83,56%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-94,76; -57,33</t>
+          <t>-94,67; -57,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-94,76; -57,33</t>
+          <t>-94,67; -57,02</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,59</t>
+          <t>-5,03; 0,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,59</t>
+          <t>-5,03; 0,1</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-34,83%</t>
+          <t>-42,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-34,83%</t>
+          <t>-42,55%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-68,2; 13,21</t>
+          <t>-76,97; -0,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-68,2; 13,21</t>
+          <t>-76,97; -0,68</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-5,63</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -3,8</t>
+          <t>-7,5; -3,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -3,8</t>
+          <t>-7,5; -3,87</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-91,25%</t>
+          <t>-91,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-91,25%</t>
+          <t>-91,98%</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-98,2; -71,04</t>
+          <t>-98,14; -74,03</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-98,2; -71,04</t>
+          <t>-98,14; -74,03</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -3,69</t>
+          <t>-5,65; -3,77</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -3,69</t>
+          <t>-5,65; -3,77</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-71,77%</t>
+          <t>-72,6%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-71,77%</t>
+          <t>-72,6%</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-79,37; -62,94</t>
+          <t>-80,63; -64,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-79,37; -62,94</t>
+          <t>-80,63; -64,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,48</t>
+          <t>-4,22; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -2,83</t>
+          <t>-10,76; -2,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -2,58</t>
+          <t>-10,27; -2,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,48</t>
+          <t>-4,22; 6,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -2,83</t>
+          <t>-10,76; -2,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -2,58</t>
+          <t>-10,27; -2,49</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 93,76</t>
+          <t>-43,96; 109,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,0; -46,43</t>
+          <t>-92,37; -43,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,96; -36,65</t>
+          <t>-92,17; -33,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 93,76</t>
+          <t>-43,96; 109,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,0; -46,43</t>
+          <t>-92,37; -43,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-92,96; -36,65</t>
+          <t>-92,17; -33,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,64</t>
+          <t>-4,67; 1,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,56</t>
+          <t>-4,07; 1,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -3,13</t>
+          <t>-7,65; -3,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,64</t>
+          <t>-4,67; 1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,56</t>
+          <t>-4,07; 1,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -3,13</t>
+          <t>-7,65; -3,11</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 34,59</t>
+          <t>-55,84; 32,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 32,02</t>
+          <t>-49,78; 33,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,55; -57,2</t>
+          <t>-92,26; -57,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 34,59</t>
+          <t>-55,84; 32,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 32,02</t>
+          <t>-49,78; 33,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,55; -57,2</t>
+          <t>-92,26; -57,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,94</t>
+          <t>2,73; 9,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,94</t>
+          <t>-3,47; 1,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,77</t>
+          <t>-3,68; 0,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,94</t>
+          <t>2,73; 9,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,94</t>
+          <t>-3,47; 1,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,77</t>
+          <t>-3,68; 0,83</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,01; 603,33</t>
+          <t>53,88; 710,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 68,64</t>
+          <t>-80,72; 105,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,97; 75,18</t>
+          <t>-84,79; 74,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,01; 603,33</t>
+          <t>53,88; 710,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 68,64</t>
+          <t>-80,72; 105,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,97; 75,18</t>
+          <t>-84,79; 74,98</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,01</t>
+          <t>-5,21; 2,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,43</t>
+          <t>-7,35; -0,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,68</t>
+          <t>-8,13; -1,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,01</t>
+          <t>-5,21; 2,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,43</t>
+          <t>-7,35; -0,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,68</t>
+          <t>-8,13; -1,65</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,41; 40,43</t>
+          <t>-53,31; 47,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -0,24</t>
+          <t>-75,41; -1,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,49; -27,64</t>
+          <t>-84,41; -25,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,41; 40,43</t>
+          <t>-53,31; 47,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -0,24</t>
+          <t>-75,41; -1,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-84,49; -27,64</t>
+          <t>-84,41; -25,18</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,92</t>
+          <t>-4,19; 7,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,71</t>
+          <t>-8,45; 1,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -4,82</t>
+          <t>-13,51; -4,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,92</t>
+          <t>-4,19; 7,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,71</t>
+          <t>-8,45; 1,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -4,82</t>
+          <t>-13,51; -4,93</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 130,37</t>
+          <t>-34,57; 125,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 34,89</t>
+          <t>-69,05; 30,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,0</t>
+          <t>-100,0; -79,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 130,37</t>
+          <t>-34,57; 125,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 34,89</t>
+          <t>-69,05; 30,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,0</t>
+          <t>-100,0; -79,15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,03</t>
+          <t>-5,56; 3,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -3,18</t>
+          <t>-10,85; -2,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -4,11</t>
+          <t>-11,32; -3,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,03</t>
+          <t>-5,56; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -3,18</t>
+          <t>-10,85; -2,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -4,11</t>
+          <t>-11,32; -3,96</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 58,42</t>
+          <t>-48,58; 68,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-89,99; -40,36</t>
+          <t>-90,35; -39,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-94,67; -57,02</t>
+          <t>-95,08; -56,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 58,42</t>
+          <t>-48,58; 68,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-89,99; -40,36</t>
+          <t>-90,35; -39,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-94,67; -57,02</t>
+          <t>-95,08; -56,45</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,11</t>
+          <t>-2,95; 1,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,71</t>
+          <t>-2,15; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,1</t>
+          <t>-5,05; 0,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,11</t>
+          <t>-2,95; 1,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,71</t>
+          <t>-2,15; 3,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,1</t>
+          <t>-5,05; 0,07</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 55,78</t>
+          <t>-45,81; 45,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 68,16</t>
+          <t>-33,51; 73,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -0,68</t>
+          <t>-76,98; 1,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 55,78</t>
+          <t>-45,81; 45,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 68,16</t>
+          <t>-33,51; 73,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -0,68</t>
+          <t>-76,98; 1,32</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,58</t>
+          <t>-2,26; 2,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,39</t>
+          <t>-3,23; 1,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -3,87</t>
+          <t>-7,68; -3,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,58</t>
+          <t>-2,26; 2,38</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,39</t>
+          <t>-3,23; 1,34</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -3,87</t>
+          <t>-7,68; -3,92</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 51,39</t>
+          <t>-32,73; 47,96</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 28,71</t>
+          <t>-43,91; 29,3</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-98,14; -74,03</t>
+          <t>-98,27; -74,51</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 51,39</t>
+          <t>-32,73; 47,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 28,71</t>
+          <t>-43,91; 29,3</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-98,14; -74,03</t>
+          <t>-98,27; -74,51</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
     </row>
